--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D07A2C8F-623C-F64F-873B-713A54597308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{454AEC78-45E0-DE46-BB54-2DF5881641C2}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD244A67-6847-9F42-A8FD-BAD55FE3874D}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="740" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="2980" yWindow="1960" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -192,6 +192,39 @@
   </si>
   <si>
     <t>Postman, Spring boot, API</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=3c63154b2bc782c5619e0401e6d2ae4d</t>
+  </si>
+  <si>
+    <t>jGCqMYH8</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=dbf11a22aaebc93fce8c5778d70d1f71</t>
+  </si>
+  <si>
+    <t>DuaANZa8</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=b0669436719ed2326921d084e27b8255</t>
+  </si>
+  <si>
+    <t>YbUUMEk5</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=cfb3df33cdf2c558ceaaca1bbcfa6d1e</t>
+  </si>
+  <si>
+    <t>HggkE57y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si yo no </t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=c19f4e9b680373905e6bc96a7d1c25c0</t>
+  </si>
+  <si>
+    <t>rRRzihw5</t>
   </si>
 </sst>
 </file>
@@ -585,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45371</v>
       </c>
@@ -788,7 +821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>37</v>
@@ -797,7 +830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
@@ -805,7 +838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>41</v>
       </c>
@@ -813,7 +846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>43</v>
       </c>
@@ -821,17 +854,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45385</v>
       </c>
       <c r="B25" s="4">
-        <v>6.9444444444444448E-2</v>
+        <v>0.12430555555555556</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -841,6 +874,94 @@
       </c>
       <c r="E25" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45387</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45391</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45392</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45393</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f>SUM(F31:F33)</f>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -860,6 +981,9 @@
     <hyperlink ref="D18" r:id="rId13" xr:uid="{556C3954-8F57-8E48-AA94-E2204FCA2CBA}"/>
     <hyperlink ref="D20" r:id="rId14" xr:uid="{016EAF94-1F47-6847-A470-4045C56489B4}"/>
     <hyperlink ref="D25" r:id="rId15" xr:uid="{DC112CE6-8FE3-3E4B-9090-81C006C2F6B1}"/>
+    <hyperlink ref="D26" r:id="rId16" xr:uid="{7FE0489C-99CD-A049-81FB-91C1AD066B8C}"/>
+    <hyperlink ref="D27" r:id="rId17" xr:uid="{A8B874F4-29A1-ED4D-BB9E-FC98E5882CBC}"/>
+    <hyperlink ref="D28" r:id="rId18" xr:uid="{92A9684E-F6B9-6B4C-A9B8-B81A49E0E039}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD244A67-6847-9F42-A8FD-BAD55FE3874D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF692E83-0F4C-AD47-99FE-40F95C7FFDC7}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="1960" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="35520" yWindow="4740" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>rRRzihw5</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=3ef106afd54588d29b38d1dd285af3e4</t>
+  </si>
+  <si>
+    <t>iXYKZgg3</t>
+  </si>
+  <si>
+    <t>Recupeación 2 horas</t>
   </si>
 </sst>
 </file>
@@ -621,7 +630,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,6 +953,18 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45396</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
       <c r="F31">
         <v>13</v>
       </c>
@@ -984,6 +1005,7 @@
     <hyperlink ref="D26" r:id="rId16" xr:uid="{7FE0489C-99CD-A049-81FB-91C1AD066B8C}"/>
     <hyperlink ref="D27" r:id="rId17" xr:uid="{A8B874F4-29A1-ED4D-BB9E-FC98E5882CBC}"/>
     <hyperlink ref="D28" r:id="rId18" xr:uid="{92A9684E-F6B9-6B4C-A9B8-B81A49E0E039}"/>
+    <hyperlink ref="D31" r:id="rId19" xr:uid="{5ADF8B04-5A0C-3B47-8FF7-3DA90EBE6116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF692E83-0F4C-AD47-99FE-40F95C7FFDC7}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D065CBDE-8C18-D54A-936C-CAA5AFDA4E9E}"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="4740" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="780" yWindow="1800" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Recupeación 2 horas</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=4be6d1b618154c2c01d9da35bc4b0751</t>
+  </si>
+  <si>
+    <t>QxhJ8xJ7</t>
   </si>
 </sst>
 </file>
@@ -630,7 +636,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,6 +976,15 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
       <c r="F32">
         <v>43</v>
       </c>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D065CBDE-8C18-D54A-936C-CAA5AFDA4E9E}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED65C97-C9BC-EE4C-B10E-7B9791203D2B}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1800" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="1280" yWindow="2460" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>QxhJ8xJ7</t>
+  </si>
+  <si>
+    <t>Arquitectura Exagonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tecsup.webex.com/tecsup/ldr.php?RCID=1d16a7d47d3bef9bdbee973f993cd45e </t>
+  </si>
+  <si>
+    <t>aCKAbci2</t>
+  </si>
+  <si>
+    <t>Aruitectura Exagonal</t>
   </si>
 </sst>
 </file>
@@ -635,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
   <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +949,7 @@
       <c r="A29" s="1">
         <v>45392</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E29" t="s">
@@ -979,7 +991,10 @@
       <c r="A32" s="1">
         <v>45397</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E32" t="s">
@@ -989,12 +1004,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45399</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
       <c r="F33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F34">
         <f>SUM(F31:F33)</f>
         <v>71</v>
@@ -1021,6 +1048,8 @@
     <hyperlink ref="D27" r:id="rId17" xr:uid="{A8B874F4-29A1-ED4D-BB9E-FC98E5882CBC}"/>
     <hyperlink ref="D28" r:id="rId18" xr:uid="{92A9684E-F6B9-6B4C-A9B8-B81A49E0E039}"/>
     <hyperlink ref="D31" r:id="rId19" xr:uid="{5ADF8B04-5A0C-3B47-8FF7-3DA90EBE6116}"/>
+    <hyperlink ref="D32" r:id="rId20" xr:uid="{82F60004-C493-5547-8B63-A7D3E76D75E1}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{EAA761A9-4AC3-BB40-98AD-A6835125F202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED65C97-C9BC-EE4C-B10E-7B9791203D2B}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71471922-62FC-5044-926D-3AEA51E0F1BC}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2460" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="2440" yWindow="2320" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -233,9 +233,6 @@
     <t>iXYKZgg3</t>
   </si>
   <si>
-    <t>Recupeación 2 horas</t>
-  </si>
-  <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=4be6d1b618154c2c01d9da35bc4b0751</t>
   </si>
   <si>
@@ -252,6 +249,18 @@
   </si>
   <si>
     <t>Aruitectura Exagonal</t>
+  </si>
+  <si>
+    <t>Recupeación 2 horas PRUEBA</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=3c5c1312172ad84a02956dd2af521503</t>
+  </si>
+  <si>
+    <t>wREM3HK7</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
   </si>
 </sst>
 </file>
@@ -648,7 +657,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,7 +984,7 @@
         <v>45396</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>63</v>
@@ -992,13 +1001,13 @@
         <v>45397</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
         <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>67</v>
       </c>
       <c r="F32">
         <v>43</v>
@@ -1009,19 +1018,31 @@
         <v>45399</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
         <v>69</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
       </c>
       <c r="F33">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45400</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
       <c r="F34">
         <f>SUM(F31:F33)</f>
         <v>71</v>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71471922-62FC-5044-926D-3AEA51E0F1BC}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CFCBCB7-63A6-E04B-800C-612735C360E5}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="2320" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="2860" yWindow="1880" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -331,10 +331,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,7 +653,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,7 +968,7 @@
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E30" t="s">
@@ -992,9 +988,6 @@
       <c r="E31" t="s">
         <v>64</v>
       </c>
-      <c r="F31">
-        <v>13</v>
-      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -1013,7 +1006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45399</v>
       </c>
@@ -1026,26 +1019,19 @@
       <c r="E33" t="s">
         <v>69</v>
       </c>
-      <c r="F33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45400</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
-      </c>
-      <c r="F34">
-        <f>SUM(F31:F33)</f>
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1071,6 +1057,8 @@
     <hyperlink ref="D31" r:id="rId19" xr:uid="{5ADF8B04-5A0C-3B47-8FF7-3DA90EBE6116}"/>
     <hyperlink ref="D32" r:id="rId20" xr:uid="{82F60004-C493-5547-8B63-A7D3E76D75E1}"/>
     <hyperlink ref="D29" r:id="rId21" xr:uid="{EAA761A9-4AC3-BB40-98AD-A6835125F202}"/>
+    <hyperlink ref="D34" r:id="rId22" xr:uid="{3B9FB31F-A905-1E4B-B8E3-889F11107119}"/>
+    <hyperlink ref="D30" r:id="rId23" xr:uid="{E4E468A4-146C-B340-9F95-5AF01C20757D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CFCBCB7-63A6-E04B-800C-612735C360E5}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5287065F-0403-6C48-AD52-83D4D03AE1C6}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1880" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="1220" yWindow="1000" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -239,9 +239,6 @@
     <t>QxhJ8xJ7</t>
   </si>
   <si>
-    <t>Arquitectura Exagonal</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://tecsup.webex.com/tecsup/ldr.php?RCID=1d16a7d47d3bef9bdbee973f993cd45e </t>
   </si>
   <si>
@@ -261,6 +258,45 @@
   </si>
   <si>
     <t>PRUEBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://tecsup.webex.com/tecsup/ldr.php?RCID=26847d030b29a1328e947d8473e721f9</t>
+  </si>
+  <si>
+    <t>pR38TbA7</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=bcf209cf1d3921276552b354107b225f</t>
+  </si>
+  <si>
+    <t>4jM9XRaA</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=dcab24fa25b1bdb68d4392eba6e49b34</t>
+  </si>
+  <si>
+    <t>mQu36mjC</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=441e5df437334a71d8f120be8f17ac40</t>
+  </si>
+  <si>
+    <t>2xJW2g2s</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=01bacab739404b4f52716075b2b09a08</t>
+  </si>
+  <si>
+    <t>kDXT7Atx</t>
+  </si>
+  <si>
+    <t>API, final</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=d39e51c539ee62f89e9680672f8c4169</t>
+  </si>
+  <si>
+    <t>MdY8c7zT</t>
   </si>
 </sst>
 </file>
@@ -331,6 +367,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,7 +1020,7 @@
         <v>45396</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>63</v>
@@ -994,7 +1034,7 @@
         <v>45397</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>65</v>
@@ -1010,14 +1050,17 @@
       <c r="A33" s="1">
         <v>45399</v>
       </c>
+      <c r="B33" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
         <v>68</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1025,13 +1068,79 @@
         <v>45400</v>
       </c>
       <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45401</v>
+      </c>
+      <c r="D35" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45401</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45402</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45403</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45404</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45406</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1059,6 +1168,7 @@
     <hyperlink ref="D29" r:id="rId21" xr:uid="{EAA761A9-4AC3-BB40-98AD-A6835125F202}"/>
     <hyperlink ref="D34" r:id="rId22" xr:uid="{3B9FB31F-A905-1E4B-B8E3-889F11107119}"/>
     <hyperlink ref="D30" r:id="rId23" xr:uid="{E4E468A4-146C-B340-9F95-5AF01C20757D}"/>
+    <hyperlink ref="D33" r:id="rId24" xr:uid="{BFB6212C-5EDA-5F4B-916E-3DA0E13800E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5287065F-0403-6C48-AD52-83D4D03AE1C6}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50CCD55-E574-B849-A609-A245828AEBA8}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1000" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="31380" yWindow="1220" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>aCKAbci2</t>
   </si>
   <si>
-    <t>Aruitectura Exagonal</t>
-  </si>
-  <si>
     <t>Recupeación 2 horas PRUEBA</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>MdY8c7zT</t>
+  </si>
+  <si>
+    <t>Arquitectura Exagonal</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,7 +1020,7 @@
         <v>45396</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>63</v>
@@ -1034,7 +1034,7 @@
         <v>45397</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>65</v>
@@ -1054,7 +1054,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>67</v>
@@ -1068,13 +1068,13 @@
         <v>45400</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
         <v>71</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,10 +1082,10 @@
         <v>45401</v>
       </c>
       <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
         <v>74</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,10 +1093,10 @@
         <v>45401</v>
       </c>
       <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
         <v>76</v>
-      </c>
-      <c r="E36" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,10 +1104,10 @@
         <v>45402</v>
       </c>
       <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
         <v>78</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1115,10 +1115,10 @@
         <v>45403</v>
       </c>
       <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
         <v>80</v>
-      </c>
-      <c r="E38" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
         <v>45404</v>
       </c>
       <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
         <v>82</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,10 +1137,10 @@
         <v>45406</v>
       </c>
       <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
         <v>85</v>
-      </c>
-      <c r="E40" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50CCD55-E574-B849-A609-A245828AEBA8}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25126EF-E7A7-1147-93EF-5655C39839C3}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="1220" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="30660" yWindow="6220" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -297,6 +297,24 @@
   </si>
   <si>
     <t>Arquitectura Exagonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://tecsup.webex.com/tecsup/ldr.php?RCID=a94c93cae3c6f8f5b910ab8257b21083</t>
+  </si>
+  <si>
+    <t>TdNuFgv6</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=61e4172d7dd3efac10d971dc6085c760</t>
+  </si>
+  <si>
+    <t>Gy8phgJu</t>
+  </si>
+  <si>
+    <t>Repaso para éxamen</t>
   </si>
 </sst>
 </file>
@@ -690,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,6 +1159,34 @@
       </c>
       <c r="E40" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45408</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25126EF-E7A7-1147-93EF-5655C39839C3}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D3ACA9-4DEE-3343-B272-03A5CC8DA058}"/>
   <bookViews>
     <workbookView xWindow="30660" yWindow="6220" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
         <v>45399</v>
       </c>
       <c r="B33" s="4">
-        <v>8.3333333333333329E-2</v>
+        <v>0.12013888888888889</v>
       </c>
       <c r="C33" t="s">
         <v>86</v>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D3ACA9-4DEE-3343-B272-03A5CC8DA058}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAA42C46-3444-2E48-B326-7A6E187177AD}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="6220" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="1220" yWindow="2180" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -296,9 +296,6 @@
     <t>MdY8c7zT</t>
   </si>
   <si>
-    <t>Arquitectura Exagonal</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://tecsup.webex.com/tecsup/ldr.php?RCID=a94c93cae3c6f8f5b910ab8257b21083</t>
   </si>
   <si>
@@ -315,6 +312,15 @@
   </si>
   <si>
     <t>Repaso para éxamen</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=338761822c86e6791e90ffd3a3877c26</t>
+  </si>
+  <si>
+    <t>FkaPkaH8</t>
+  </si>
+  <si>
+    <t>Arquitectura Exagonal I</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,11 +1074,11 @@
       <c r="A33" s="1">
         <v>45399</v>
       </c>
-      <c r="B33" s="4">
-        <v>0.12013888888888889</v>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>67</v>
@@ -1166,13 +1172,13 @@
         <v>45408</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
         <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1180,13 +1186,27 @@
         <v>45412</v>
       </c>
       <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
         <v>92</v>
       </c>
-      <c r="D42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" t="s">
-        <v>91</v>
+      <c r="E43" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAA42C46-3444-2E48-B326-7A6E187177AD}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{433DF79E-E564-3441-9B37-16D168318B63}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="2180" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="29880" yWindow="3300" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>Arquitectura Exagonal I</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=3817161ea58a6a21d983aa103d43f695</t>
+  </si>
+  <si>
+    <t>EtT6JUsh</t>
   </si>
 </sst>
 </file>
@@ -714,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,29 +1189,43 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>45413</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>46</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>93</v>
       </c>
     </row>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{433DF79E-E564-3441-9B37-16D168318B63}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A06FBF-1996-B34A-8A58-D3D821AF1815}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="3300" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView minimized="1" xWindow="1260" yWindow="1560" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -254,9 +254,6 @@
     <t>wREM3HK7</t>
   </si>
   <si>
-    <t>PRUEBA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://tecsup.webex.com/tecsup/ldr.php?RCID=26847d030b29a1328e947d8473e721f9</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=338761822c86e6791e90ffd3a3877c26</t>
   </si>
   <si>
-    <t>FkaPkaH8</t>
-  </si>
-  <si>
     <t>Arquitectura Exagonal I</t>
   </si>
   <si>
@@ -327,6 +321,21 @@
   </si>
   <si>
     <t>EtT6JUsh</t>
+  </si>
+  <si>
+    <t>PRUEBA - Consultar Saldo</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://tecsup.webex.com/tecsup/ldr.php?RCID=94dbd3bda10bd24ce0adb70809cfd4d9</t>
+  </si>
+  <si>
+    <t>SgmJC3S9</t>
+  </si>
+  <si>
+    <t>Postmasn ms-registro</t>
   </si>
 </sst>
 </file>
@@ -720,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F44"/>
+  <dimension ref="A2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1073,7 @@
         <v>45397</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>65</v>
@@ -1084,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>67</v>
@@ -1098,7 +1107,7 @@
         <v>45400</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>70</v>
@@ -1111,11 +1120,14 @@
       <c r="A35" s="1">
         <v>45401</v>
       </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
       <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
         <v>73</v>
-      </c>
-      <c r="E35" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,10 +1135,10 @@
         <v>45401</v>
       </c>
       <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
         <v>75</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1134,10 +1146,10 @@
         <v>45402</v>
       </c>
       <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
         <v>77</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,10 +1157,10 @@
         <v>45403</v>
       </c>
       <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
         <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,10 +1168,10 @@
         <v>45404</v>
       </c>
       <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
         <v>81</v>
-      </c>
-      <c r="E39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,10 +1179,10 @@
         <v>45406</v>
       </c>
       <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
         <v>84</v>
-      </c>
-      <c r="E40" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1178,13 +1190,13 @@
         <v>45408</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
         <v>86</v>
-      </c>
-      <c r="E41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,10 +1207,10 @@
         <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,13 +1218,13 @@
         <v>45412</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1222,11 +1234,25 @@
       <c r="C44" t="s">
         <v>46</v>
       </c>
-      <c r="D44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
+      <c r="D44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45414</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1255,6 +1281,8 @@
     <hyperlink ref="D34" r:id="rId22" xr:uid="{3B9FB31F-A905-1E4B-B8E3-889F11107119}"/>
     <hyperlink ref="D30" r:id="rId23" xr:uid="{E4E468A4-146C-B340-9F95-5AF01C20757D}"/>
     <hyperlink ref="D33" r:id="rId24" xr:uid="{BFB6212C-5EDA-5F4B-916E-3DA0E13800E7}"/>
+    <hyperlink ref="D44" r:id="rId25" xr:uid="{3ECA3D04-421E-404C-BE3B-D0D6C0C2085B}"/>
+    <hyperlink ref="E44" r:id="rId26" xr:uid="{2DD6AECD-E770-F147-B385-C10B0A78C7D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A06FBF-1996-B34A-8A58-D3D821AF1815}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0650168D-1B8B-E649-96DD-7119E9E6447E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1260" yWindow="1560" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="900" yWindow="1020" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>Postmasn ms-registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FkaPkaH8</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=86319c390dc016b3ea8ee0e4ff2f7055</t>
+  </si>
+  <si>
+    <t>mSPsdKn6</t>
+  </si>
+  <si>
+    <t>Continuación y Comentarios examen</t>
   </si>
 </sst>
 </file>
@@ -729,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F45"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1250,7 @@
         <v>91</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1253,6 +1265,20 @@
       </c>
       <c r="E45" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45418</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1308,7 @@
     <hyperlink ref="D30" r:id="rId23" xr:uid="{E4E468A4-146C-B340-9F95-5AF01C20757D}"/>
     <hyperlink ref="D33" r:id="rId24" xr:uid="{BFB6212C-5EDA-5F4B-916E-3DA0E13800E7}"/>
     <hyperlink ref="D44" r:id="rId25" xr:uid="{3ECA3D04-421E-404C-BE3B-D0D6C0C2085B}"/>
-    <hyperlink ref="E44" r:id="rId26" xr:uid="{2DD6AECD-E770-F147-B385-C10B0A78C7D7}"/>
+    <hyperlink ref="E44" r:id="rId26" display="https://tecsup.webex.com/tecsup/ldr.php?RCID=338761822c86e6791e90ffd3a3877c26" xr:uid="{2DD6AECD-E770-F147-B385-C10B0A78C7D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0650168D-1B8B-E649-96DD-7119E9E6447E}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29121D4-159F-7F40-B6BF-D19D902DD6E5}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1020" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="2940" yWindow="2820" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>TdNuFgv6</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=61e4172d7dd3efac10d971dc6085c760</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Continuación y Comentarios examen</t>
+  </si>
+  <si>
+    <t>Tests y Security</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A2:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>67</v>
@@ -1119,7 +1119,7 @@
         <v>45400</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>70</v>
@@ -1133,7 +1133,7 @@
         <v>45401</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
@@ -1202,7 +1202,7 @@
         <v>45408</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>85</v>
@@ -1216,13 +1216,13 @@
         <v>45411</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
         <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1230,13 +1230,13 @@
         <v>45412</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1247,10 +1247,10 @@
         <v>46</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1258,13 +1258,13 @@
         <v>45414</v>
       </c>
       <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
         <v>96</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>97</v>
-      </c>
-      <c r="E45" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,13 +1272,13 @@
         <v>45418</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
         <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1309,6 +1309,8 @@
     <hyperlink ref="D33" r:id="rId24" xr:uid="{BFB6212C-5EDA-5F4B-916E-3DA0E13800E7}"/>
     <hyperlink ref="D44" r:id="rId25" xr:uid="{3ECA3D04-421E-404C-BE3B-D0D6C0C2085B}"/>
     <hyperlink ref="E44" r:id="rId26" display="https://tecsup.webex.com/tecsup/ldr.php?RCID=338761822c86e6791e90ffd3a3877c26" xr:uid="{2DD6AECD-E770-F147-B385-C10B0A78C7D7}"/>
+    <hyperlink ref="D43" r:id="rId27" xr:uid="{DD6B0C72-2FB5-8E40-94BF-1BE2194E1A8F}"/>
+    <hyperlink ref="D42" r:id="rId28" xr:uid="{40A6377A-AA5A-0548-B6FF-668203D83EE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29121D4-159F-7F40-B6BF-D19D902DD6E5}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B903801-52C7-7943-A4FB-0FC39006B2D6}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2820" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="1700" yWindow="1400" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -348,6 +348,27 @@
   </si>
   <si>
     <t>Tests y Security</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=0acab4db96997e9e9900eb9c64487d02</t>
+  </si>
+  <si>
+    <t>8Tu4v6PB</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=f5df756e0325ba56b6b9cf08c928505b</t>
+  </si>
+  <si>
+    <t>pK5X2sHM</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=5548264b82c24dc9378bd22623e95c9a</t>
+  </si>
+  <si>
+    <t>iMmwWu8x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramas de GIT, </t>
   </si>
 </sst>
 </file>
@@ -741,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F46"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,6 +1300,45 @@
       </c>
       <c r="E46" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45420</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45421</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45422</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1311,6 +1371,7 @@
     <hyperlink ref="E44" r:id="rId26" display="https://tecsup.webex.com/tecsup/ldr.php?RCID=338761822c86e6791e90ffd3a3877c26" xr:uid="{2DD6AECD-E770-F147-B385-C10B0A78C7D7}"/>
     <hyperlink ref="D43" r:id="rId27" xr:uid="{DD6B0C72-2FB5-8E40-94BF-1BE2194E1A8F}"/>
     <hyperlink ref="D42" r:id="rId28" xr:uid="{40A6377A-AA5A-0548-B6FF-668203D83EE8}"/>
+    <hyperlink ref="D47" r:id="rId29" xr:uid="{D245833C-4286-3140-8C71-16C42E4BD97F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardoramirez/Library/CloudStorage/OneDrive-Innovacción-MicrosoftEducacionMexico/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{6E3EBEFD-7FD4-4C45-91E3-C9FB228A1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B903801-52C7-7943-A4FB-0FC39006B2D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407DE087-4542-944C-8DB1-ADBBCAC3DA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1400" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -368,7 +368,10 @@
     <t>iMmwWu8x</t>
   </si>
   <si>
-    <t xml:space="preserve">Ramas de GIT, </t>
+    <t>Ramas de GIT, Sonarqube</t>
+  </si>
+  <si>
+    <t>No se</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,7 +764,7 @@
   <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,6 +1332,9 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45422</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardoramirez/Library/CloudStorage/OneDrive-Innovacción-MicrosoftEducacionMexico/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407DE087-4542-944C-8DB1-ADBBCAC3DA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187D820-A266-CF4D-8FC1-9F2BEEE4856A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1400" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>No se</t>
+  </si>
+  <si>
+    <t>Fata</t>
   </si>
 </sst>
 </file>
@@ -761,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,6 +1344,11 @@
       </c>
       <c r="E49" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardoramirez/Library/CloudStorage/OneDrive-Innovacción-MicrosoftEducacionMexico/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187D820-A266-CF4D-8FC1-9F2BEEE4856A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7149F94B-4BAF-E445-9874-F352DC4F47F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1400" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardoramirez/Library/CloudStorage/OneDrive-Innovacción-MicrosoftEducacionMexico/4.Java/FullStackJavaTecsup/BootcampJava/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7149F94B-4BAF-E445-9874-F352DC4F47F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A7CE0034-53F8-7A40-AFEA-0F97FB37E70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F3D851-C7D3-6A4B-9742-8B643185B5A9}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1400" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="3900" yWindow="2560" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -374,7 +374,19 @@
     <t>No se</t>
   </si>
   <si>
-    <t>Fata</t>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=b8380f88993911ddc73fda1b637cb71c</t>
+  </si>
+  <si>
+    <t>sYpP9eJ2</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=64a338b2d8957d215eb98e59dba9012b</t>
+  </si>
+  <si>
+    <t>xNp93Wfp</t>
+  </si>
+  <si>
+    <t>Tutoria Tokents</t>
   </si>
 </sst>
 </file>
@@ -764,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,8 +1359,28 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+      <c r="A50" s="1">
+        <v>45425</v>
+      </c>
+      <c r="D50" t="s">
         <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45426</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Avance.xlsx
+++ b/Avance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovaccion-my.sharepoint.com/personal/lx14702_innovaccion_mx/Documents/4.Java/FullStackJavaTecsup/BootcampJava/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardoramirez/Library/CloudStorage/OneDrive-Innovacción-MicrosoftEducacionMexico/4.Java/FullStackJavaTecsup/BootcampJava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A7CE0034-53F8-7A40-AFEA-0F97FB37E70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F3D851-C7D3-6A4B-9742-8B643185B5A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1BAF5-6712-F345-AC45-CE13B6C24E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2560" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
+    <workbookView xWindow="43580" yWindow="5240" windowWidth="23300" windowHeight="13260" xr2:uid="{9B8E8FEF-6B14-ED49-B192-ACDD11EA36C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
   <si>
     <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=9f4869bf786c0f70b91301fdb76e9763</t>
   </si>
@@ -387,6 +387,36 @@
   </si>
   <si>
     <t>Tutoria Tokents</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=5a082f4b15f05f55cdf70b29dedeb542</t>
+  </si>
+  <si>
+    <t>qMzD9jR5</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=3f533f0c594d66fc46e70fbac4706379</t>
+  </si>
+  <si>
+    <t>qUMQu9S3</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=e0106e4cee9f2b3a6611f1a724d26350</t>
+  </si>
+  <si>
+    <t>GmMphxc4</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=f414bafbc9c576bc2c66e163eacdc06b</t>
+  </si>
+  <si>
+    <t>MsGv3zmG</t>
+  </si>
+  <si>
+    <t>https://tecsup.webex.com/tecsup/ldr.php?RCID=3255a480cd6bf7848934651a67bb1f5d</t>
+  </si>
+  <si>
+    <t>mPAfH36X</t>
   </si>
 </sst>
 </file>
@@ -776,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61CE00-3EAC-F24D-BCD8-995A8148363B}">
-  <dimension ref="A2:F51"/>
+  <dimension ref="A2:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,6 +1411,67 @@
       </c>
       <c r="E51" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45429</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45430</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45431</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45432</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1414,6 +1505,8 @@
     <hyperlink ref="D43" r:id="rId27" xr:uid="{DD6B0C72-2FB5-8E40-94BF-1BE2194E1A8F}"/>
     <hyperlink ref="D42" r:id="rId28" xr:uid="{40A6377A-AA5A-0548-B6FF-668203D83EE8}"/>
     <hyperlink ref="D47" r:id="rId29" xr:uid="{D245833C-4286-3140-8C71-16C42E4BD97F}"/>
+    <hyperlink ref="D52" r:id="rId30" xr:uid="{8DD190CA-239E-744E-928E-FC7D053DA408}"/>
+    <hyperlink ref="D56" r:id="rId31" xr:uid="{0182700B-C63A-CA4D-BF83-FD61CD6E465B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
